--- a/static/db/osnovni/RZ19 TK01 - TS Obrenovac.xlsx
+++ b/static/db/osnovni/RZ19 TK01 - TS Obrenovac.xlsx
@@ -1372,7 +1372,7 @@
       </c>
       <c r="G7" s="127" t="inlineStr">
         <is>
-          <t>82/23</t>
+          <t>83/23</t>
         </is>
       </c>
       <c r="I7" s="120" t="n"/>

--- a/static/db/osnovni/RZ19 TK01 - TS Obrenovac.xlsx
+++ b/static/db/osnovni/RZ19 TK01 - TS Obrenovac.xlsx
@@ -1372,7 +1372,7 @@
       </c>
       <c r="G7" s="127" t="inlineStr">
         <is>
-          <t>83/23</t>
+          <t>84/23</t>
         </is>
       </c>
       <c r="I7" s="120" t="n"/>

--- a/static/db/osnovni/RZ19 TK01 - TS Obrenovac.xlsx
+++ b/static/db/osnovni/RZ19 TK01 - TS Obrenovac.xlsx
@@ -1372,7 +1372,7 @@
       </c>
       <c r="G7" s="127" t="inlineStr">
         <is>
-          <t>84/23</t>
+          <t>113/23</t>
         </is>
       </c>
       <c r="I7" s="120" t="n"/>
